--- a/Paolo/Scripts/Factores/Info_2023.xlsx
+++ b/Paolo/Scripts/Factores/Info_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$T$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Graduación!$A$1:$H$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Graduación!$A$1:$G$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nuevos!$A$1:$D$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$49</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="304">
   <si>
     <t>Correlativo</t>
   </si>
@@ -2701,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -7703,11 +7703,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7715,10 +7715,10 @@
     <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7738,13 +7738,10 @@
         <v>188</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7764,9 +7761,8 @@
         <v>0.26</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -7786,9 +7782,8 @@
         <v>0.1</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7808,9 +7803,8 @@
         <v>0.06</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -7830,9 +7824,8 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -7852,9 +7845,8 @@
         <v>0.04</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -7874,9 +7866,8 @@
         <v>0.06</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -7896,9 +7887,8 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -7918,9 +7908,8 @@
         <v>0.32</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -7940,9 +7929,8 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7962,9 +7950,8 @@
         <v>0.12</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -7984,9 +7971,8 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -8006,9 +7992,8 @@
         <v>0.12</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -8028,9 +8013,8 @@
         <v>0.06</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -8050,9 +8034,8 @@
         <v>0.46</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -8072,9 +8055,8 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -8094,9 +8076,8 @@
         <v>0.06</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -8116,9 +8097,8 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -8138,9 +8118,8 @@
         <v>0.12</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -8160,9 +8139,8 @@
         <v>0.18</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -8182,9 +8160,8 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -8204,9 +8181,8 @@
         <v>0.26</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -8226,9 +8202,8 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -8248,9 +8223,8 @@
         <v>0.12</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -8270,9 +8244,8 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -8292,9 +8265,8 @@
         <v>0.12</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -8314,9 +8286,8 @@
         <v>0.18</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -8327,12 +8298,11 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -8348,9 +8318,8 @@
         <v>1</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -8366,9 +8335,8 @@
         <v>1</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -8384,9 +8352,8 @@
         <v>1</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -8397,12 +8364,11 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>6</v>
       </c>
@@ -8413,12 +8379,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>7</v>
       </c>
@@ -8438,9 +8403,8 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>7</v>
       </c>
@@ -8460,9 +8424,8 @@
         <v>0.4</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -8482,9 +8445,8 @@
         <v>0.1</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -8504,9 +8466,8 @@
         <v>0.08</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>7</v>
       </c>
@@ -8526,9 +8487,8 @@
         <v>0.06</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -8548,9 +8508,8 @@
         <v>0.1</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -8570,9 +8529,8 @@
         <v>0.4</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>7</v>
       </c>
@@ -8592,9 +8550,8 @@
         <v>0.3</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -8614,9 +8571,8 @@
         <v>0.1</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7</v>
       </c>
@@ -8636,9 +8592,8 @@
         <v>0.08</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>7</v>
       </c>
@@ -8658,9 +8613,8 @@
         <v>0.06</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -8680,9 +8634,8 @@
         <v>0.3</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>7</v>
       </c>
@@ -8702,9 +8655,8 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -8724,9 +8676,8 @@
         <v>0.4</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -8746,9 +8697,8 @@
         <v>0.1</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -8768,9 +8718,8 @@
         <v>0.08</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -8790,9 +8739,8 @@
         <v>0.06</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -8812,9 +8760,8 @@
         <v>0.3</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -8834,9 +8781,8 @@
         <v>0.2</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -8856,9 +8802,8 @@
         <v>0.1</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -8878,9 +8823,8 @@
         <v>0.1</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>7</v>
       </c>
@@ -8900,9 +8844,8 @@
         <v>0.08</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -8922,9 +8865,8 @@
         <v>0.06</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>7</v>
       </c>
@@ -8944,9 +8886,8 @@
         <v>0.3</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>7</v>
       </c>
@@ -8966,9 +8907,8 @@
         <v>0.3</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>7</v>
       </c>
@@ -8988,9 +8928,8 @@
         <v>0.2</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>7</v>
       </c>
@@ -9010,9 +8949,8 @@
         <v>0.1</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>7</v>
       </c>
@@ -9032,9 +8970,8 @@
         <v>0.08</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>7</v>
       </c>
@@ -9054,9 +8991,8 @@
         <v>0.06</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>7</v>
       </c>
@@ -9076,9 +9012,8 @@
         <v>0.1</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>8</v>
       </c>
@@ -9089,12 +9024,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>9</v>
       </c>
@@ -9105,12 +9039,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>10</v>
       </c>
@@ -9121,12 +9054,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>11</v>
       </c>
@@ -9142,9 +9074,8 @@
         <v>1</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>12</v>
       </c>
@@ -9164,9 +9095,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>12</v>
       </c>
@@ -9186,9 +9116,8 @@
         <v>0.3</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>12</v>
       </c>
@@ -9208,9 +9137,8 @@
         <v>0.06</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>12</v>
       </c>
@@ -9230,9 +9158,8 @@
         <v>0.1</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>12</v>
       </c>
@@ -9252,9 +9179,8 @@
         <v>0.12</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>12</v>
       </c>
@@ -9274,9 +9200,8 @@
         <v>0.16</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>12</v>
       </c>
@@ -9296,9 +9221,8 @@
         <v>0.06</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>12</v>
       </c>
@@ -9318,9 +9242,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>12</v>
       </c>
@@ -9340,9 +9263,8 @@
         <v>0.3</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>12</v>
       </c>
@@ -9362,9 +9284,8 @@
         <v>0.06</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>12</v>
       </c>
@@ -9384,9 +9305,8 @@
         <v>0.1</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>12</v>
       </c>
@@ -9406,9 +9326,8 @@
         <v>0.12</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>12</v>
       </c>
@@ -9428,9 +9347,8 @@
         <v>0.16</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>12</v>
       </c>
@@ -9450,9 +9368,8 @@
         <v>0.06</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>12</v>
       </c>
@@ -9472,9 +9389,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>12</v>
       </c>
@@ -9494,9 +9410,8 @@
         <v>0.3</v>
       </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>12</v>
       </c>
@@ -9516,9 +9431,8 @@
         <v>0.06</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>12</v>
       </c>
@@ -9538,9 +9452,8 @@
         <v>0.1</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>12</v>
       </c>
@@ -9560,9 +9473,8 @@
         <v>0.12</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>12</v>
       </c>
@@ -9582,9 +9494,8 @@
         <v>0.16</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>12</v>
       </c>
@@ -9604,9 +9515,8 @@
         <v>0.06</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>12</v>
       </c>
@@ -9626,9 +9536,8 @@
         <v>0.66</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -9648,9 +9557,8 @@
         <v>0.4</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -9670,9 +9578,8 @@
         <v>0.06</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>12</v>
       </c>
@@ -9692,9 +9599,8 @@
         <v>0.2</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>12</v>
       </c>
@@ -9714,9 +9620,8 @@
         <v>0.16</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>12</v>
       </c>
@@ -9736,9 +9641,8 @@
         <v>0.24</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>12</v>
       </c>
@@ -9758,9 +9662,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>12</v>
       </c>
@@ -9780,9 +9683,8 @@
         <v>0.3</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>12</v>
       </c>
@@ -9802,9 +9704,8 @@
         <v>0.06</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>12</v>
       </c>
@@ -9824,9 +9725,8 @@
         <v>0.1</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>12</v>
       </c>
@@ -9846,9 +9746,8 @@
         <v>0.12</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>12</v>
       </c>
@@ -9868,9 +9767,8 @@
         <v>0.16</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>12</v>
       </c>
@@ -9890,9 +9788,8 @@
         <v>0.06</v>
       </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>13</v>
       </c>
@@ -9903,12 +9800,11 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>14</v>
       </c>
@@ -9919,12 +9815,11 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>15</v>
       </c>
@@ -9935,12 +9830,11 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4" t="s">
+      <c r="G104" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>16</v>
       </c>
@@ -9951,12 +9845,11 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>17</v>
       </c>
@@ -9972,9 +9865,8 @@
         <v>1</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>17</v>
       </c>
@@ -9990,9 +9882,8 @@
         <v>1</v>
       </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>18</v>
       </c>
@@ -10008,9 +9899,8 @@
         <v>1</v>
       </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>19</v>
       </c>
@@ -10021,12 +9911,11 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>20</v>
       </c>
@@ -10046,9 +9935,8 @@
         <v>0.12</v>
       </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>20</v>
       </c>
@@ -10068,9 +9956,8 @@
         <v>0.12</v>
       </c>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>20</v>
       </c>
@@ -10090,9 +9977,8 @@
         <v>0.12</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>20</v>
       </c>
@@ -10112,9 +9998,8 @@
         <v>0.12</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>21</v>
       </c>
@@ -10125,12 +10010,11 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>22</v>
       </c>
@@ -10141,12 +10025,11 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>23</v>
       </c>
@@ -10162,9 +10045,8 @@
         <v>1</v>
       </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>24</v>
       </c>
@@ -10184,9 +10066,8 @@
         <v>0.54</v>
       </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>24</v>
       </c>
@@ -10206,9 +10087,8 @@
         <v>0.2</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>24</v>
       </c>
@@ -10228,9 +10108,8 @@
         <v>0.12</v>
       </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>24</v>
       </c>
@@ -10250,9 +10129,8 @@
         <v>0.1</v>
       </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>24</v>
       </c>
@@ -10272,9 +10150,8 @@
         <v>0.12</v>
       </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>24</v>
       </c>
@@ -10294,9 +10171,8 @@
         <v>0.12</v>
       </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>24</v>
       </c>
@@ -10316,9 +10192,8 @@
         <v>0.06</v>
       </c>
       <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>24</v>
       </c>
@@ -10338,9 +10213,8 @@
         <v>0.3</v>
       </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>25</v>
       </c>
@@ -10356,9 +10230,8 @@
         <v>1</v>
       </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>25</v>
       </c>
@@ -10374,9 +10247,8 @@
         <v>1</v>
       </c>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>26</v>
       </c>
@@ -10387,12 +10259,11 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>27</v>
       </c>
@@ -10403,12 +10274,11 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>28</v>
       </c>
@@ -10428,9 +10298,8 @@
         <v>0.36</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>28</v>
       </c>
@@ -10450,9 +10319,8 @@
         <v>0.2</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>28</v>
       </c>
@@ -10472,9 +10340,8 @@
         <v>0.06</v>
       </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>28</v>
       </c>
@@ -10494,9 +10361,8 @@
         <v>0.1</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>28</v>
       </c>
@@ -10516,9 +10382,8 @@
         <v>0.04</v>
       </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>28</v>
       </c>
@@ -10538,9 +10403,8 @@
         <v>0.06</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>28</v>
       </c>
@@ -10560,9 +10424,8 @@
         <v>0.26</v>
       </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>28</v>
       </c>
@@ -10582,9 +10445,8 @@
         <v>0.1</v>
       </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>28</v>
       </c>
@@ -10604,9 +10466,8 @@
         <v>0.06</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>28</v>
       </c>
@@ -10626,9 +10487,8 @@
         <v>0.1</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>28</v>
       </c>
@@ -10648,9 +10508,8 @@
         <v>0.04</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>28</v>
       </c>
@@ -10670,9 +10529,8 @@
         <v>0.26</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>28</v>
       </c>
@@ -10692,9 +10550,8 @@
         <v>0.1</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>28</v>
       </c>
@@ -10714,9 +10571,8 @@
         <v>0.06</v>
       </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>28</v>
       </c>
@@ -10736,9 +10592,8 @@
         <v>0.1</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>28</v>
       </c>
@@ -10758,9 +10613,8 @@
         <v>0.04</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>28</v>
       </c>
@@ -10776,9 +10630,8 @@
         <v>1</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>28</v>
       </c>
@@ -10794,9 +10647,8 @@
         <v>1</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>28</v>
       </c>
@@ -10812,9 +10664,8 @@
         <v>1</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>28</v>
       </c>
@@ -10830,9 +10681,8 @@
         <v>1</v>
       </c>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>28</v>
       </c>
@@ -10848,9 +10698,8 @@
         <v>1</v>
       </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>28</v>
       </c>
@@ -10866,9 +10715,8 @@
         <v>1</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>28</v>
       </c>
@@ -10884,9 +10732,8 @@
         <v>1</v>
       </c>
       <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>28</v>
       </c>
@@ -10906,9 +10753,8 @@
         <v>0.26</v>
       </c>
       <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>28</v>
       </c>
@@ -10928,9 +10774,8 @@
         <v>0.1</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>28</v>
       </c>
@@ -10950,9 +10795,8 @@
         <v>0.06</v>
       </c>
       <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>28</v>
       </c>
@@ -10972,9 +10816,8 @@
         <v>0.1</v>
       </c>
       <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>28</v>
       </c>
@@ -10994,9 +10837,8 @@
         <v>0.04</v>
       </c>
       <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>28</v>
       </c>
@@ -11012,9 +10854,8 @@
         <v>1</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>28</v>
       </c>
@@ -11030,9 +10871,8 @@
         <v>1</v>
       </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>29</v>
       </c>
@@ -11043,12 +10883,11 @@
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>30</v>
       </c>
@@ -11059,12 +10898,11 @@
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="3" t="s">
+      <c r="G160" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>31</v>
       </c>
@@ -11084,9 +10922,8 @@
         <v>0.46</v>
       </c>
       <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>31</v>
       </c>
@@ -11106,9 +10943,8 @@
         <v>0.3</v>
       </c>
       <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>31</v>
       </c>
@@ -11128,9 +10964,8 @@
         <v>0.06</v>
       </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>31</v>
       </c>
@@ -11150,9 +10985,8 @@
         <v>0.1</v>
       </c>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>31</v>
       </c>
@@ -11172,9 +11006,8 @@
         <v>0.04</v>
       </c>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>31</v>
       </c>
@@ -11194,9 +11027,8 @@
         <v>0.06</v>
       </c>
       <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>31</v>
       </c>
@@ -11216,9 +11048,8 @@
         <v>0.1</v>
       </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>32</v>
       </c>
@@ -11238,9 +11069,8 @@
         <v>0.54</v>
       </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>32</v>
       </c>
@@ -11260,9 +11090,8 @@
         <v>0.2</v>
       </c>
       <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>32</v>
       </c>
@@ -11282,9 +11111,8 @@
         <v>0.12</v>
       </c>
       <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>32</v>
       </c>
@@ -11304,9 +11132,8 @@
         <v>0.1</v>
       </c>
       <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>32</v>
       </c>
@@ -11326,9 +11153,8 @@
         <v>0.12</v>
       </c>
       <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>32</v>
       </c>
@@ -11348,9 +11174,8 @@
         <v>0.08</v>
       </c>
       <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>32</v>
       </c>
@@ -11370,9 +11195,8 @@
         <v>0.06</v>
       </c>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>32</v>
       </c>
@@ -11392,9 +11216,8 @@
         <v>0.3</v>
       </c>
       <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>32</v>
       </c>
@@ -11414,9 +11237,8 @@
         <v>0.62</v>
       </c>
       <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>32</v>
       </c>
@@ -11436,9 +11258,8 @@
         <v>0.4</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>32</v>
       </c>
@@ -11458,9 +11279,8 @@
         <v>0.12</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>32</v>
       </c>
@@ -11480,9 +11300,8 @@
         <v>0.1</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>32</v>
       </c>
@@ -11502,9 +11321,8 @@
         <v>0.08</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>32</v>
       </c>
@@ -11524,9 +11342,8 @@
         <v>0.18</v>
       </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>32</v>
       </c>
@@ -11546,9 +11363,8 @@
         <v>0.1</v>
       </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>32</v>
       </c>
@@ -11564,9 +11380,8 @@
         <v>1</v>
       </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>33</v>
       </c>
@@ -11586,9 +11401,8 @@
         <v>0.46</v>
       </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>33</v>
       </c>
@@ -11608,9 +11422,8 @@
         <v>0.3</v>
       </c>
       <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>33</v>
       </c>
@@ -11630,9 +11443,8 @@
         <v>0.06</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>33</v>
       </c>
@@ -11652,9 +11464,8 @@
         <v>0.1</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>33</v>
       </c>
@@ -11674,9 +11485,8 @@
         <v>0.08</v>
       </c>
       <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>33</v>
       </c>
@@ -11696,9 +11506,8 @@
         <v>0.06</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>33</v>
       </c>
@@ -11718,9 +11527,8 @@
         <v>-0.1</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>34</v>
       </c>
@@ -11736,9 +11544,8 @@
         <v>1</v>
       </c>
       <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>35</v>
       </c>
@@ -11754,9 +11561,8 @@
         <v>1</v>
       </c>
       <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>36</v>
       </c>
@@ -11776,9 +11582,8 @@
         <v>0.26</v>
       </c>
       <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>36</v>
       </c>
@@ -11798,9 +11603,8 @@
         <v>0.1</v>
       </c>
       <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>36</v>
       </c>
@@ -11820,9 +11624,8 @@
         <v>0.06</v>
       </c>
       <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>36</v>
       </c>
@@ -11842,9 +11645,8 @@
         <v>0.1</v>
       </c>
       <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>36</v>
       </c>
@@ -11864,9 +11666,8 @@
         <v>0.08</v>
       </c>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>36</v>
       </c>
@@ -11886,9 +11687,8 @@
         <v>0.06</v>
       </c>
       <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>36</v>
       </c>
@@ -11904,9 +11704,8 @@
         <v>1</v>
       </c>
       <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>36</v>
       </c>
@@ -11926,9 +11725,8 @@
         <v>0.26</v>
       </c>
       <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>36</v>
       </c>
@@ -11948,9 +11746,8 @@
         <v>0.1</v>
       </c>
       <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>36</v>
       </c>
@@ -11970,9 +11767,8 @@
         <v>0.06</v>
       </c>
       <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>36</v>
       </c>
@@ -11992,9 +11788,8 @@
         <v>0.1</v>
       </c>
       <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>36</v>
       </c>
@@ -12014,9 +11809,8 @@
         <v>0.08</v>
       </c>
       <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>36</v>
       </c>
@@ -12036,9 +11830,8 @@
         <v>0.06</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>36</v>
       </c>
@@ -12058,9 +11851,8 @@
         <v>0.26</v>
       </c>
       <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>36</v>
       </c>
@@ -12080,9 +11872,8 @@
         <v>0.1</v>
       </c>
       <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>36</v>
       </c>
@@ -12102,9 +11893,8 @@
         <v>0.06</v>
       </c>
       <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>36</v>
       </c>
@@ -12124,9 +11914,8 @@
         <v>0.1</v>
       </c>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>36</v>
       </c>
@@ -12146,9 +11935,8 @@
         <v>0.08</v>
       </c>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>36</v>
       </c>
@@ -12168,9 +11956,8 @@
         <v>0.06</v>
       </c>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>37</v>
       </c>
@@ -12186,9 +11973,8 @@
         <v>1</v>
       </c>
       <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>38</v>
       </c>
@@ -12204,9 +11990,8 @@
         <v>1</v>
       </c>
       <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>38</v>
       </c>
@@ -12222,9 +12007,8 @@
         <v>1</v>
       </c>
       <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>39</v>
       </c>
@@ -12235,12 +12019,11 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="9"/>
-      <c r="G215" s="4"/>
-      <c r="H215" s="3" t="s">
+      <c r="G215" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>40</v>
       </c>
@@ -12251,12 +12034,11 @@
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="9"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="3" t="s">
+      <c r="G216" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>41</v>
       </c>
@@ -12272,9 +12054,8 @@
         <v>1</v>
       </c>
       <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>42</v>
       </c>
@@ -12285,12 +12066,11 @@
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="9"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="3" t="s">
+      <c r="G218" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>43</v>
       </c>
@@ -12301,12 +12081,11 @@
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="9"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="3" t="s">
+      <c r="G219" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>44</v>
       </c>
@@ -12322,9 +12101,8 @@
         <v>1</v>
       </c>
       <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>45</v>
       </c>
@@ -12335,12 +12113,11 @@
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="9"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="3" t="s">
+      <c r="G221" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>46</v>
       </c>
@@ -12356,9 +12133,8 @@
         <v>1</v>
       </c>
       <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>47</v>
       </c>
@@ -12374,9 +12150,8 @@
         <v>1</v>
       </c>
       <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>48</v>
       </c>
@@ -12396,9 +12171,8 @@
         <v>1.02</v>
       </c>
       <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>48</v>
       </c>
@@ -12418,9 +12192,8 @@
         <v>0.2</v>
       </c>
       <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>48</v>
       </c>
@@ -12440,9 +12213,8 @@
         <v>0.1</v>
       </c>
       <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>48</v>
       </c>
@@ -12462,9 +12234,8 @@
         <v>0.12</v>
       </c>
       <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>48</v>
       </c>
@@ -12484,9 +12255,8 @@
         <v>0.6</v>
       </c>
       <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>48</v>
       </c>
@@ -12506,9 +12276,8 @@
         <v>0.08</v>
       </c>
       <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>48</v>
       </c>
@@ -12528,9 +12297,8 @@
         <v>0.06</v>
       </c>
       <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>48</v>
       </c>
@@ -12550,10 +12318,9 @@
         <v>0.3</v>
       </c>
       <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H224"/>
+  <autoFilter ref="A1:G224"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Paolo/Scripts/Factores/Info_2023.xlsx
+++ b/Paolo/Scripts/Factores/Info_2023.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Nuevos" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Consolidado" sheetId="4" r:id="rId3"/>
-    <sheet name="Graduación" sheetId="5" r:id="rId4"/>
-    <sheet name="Leyenda" sheetId="6" r:id="rId5"/>
-    <sheet name="Base" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Total" sheetId="9" r:id="rId4"/>
+    <sheet name="Revision" sheetId="8" r:id="rId5"/>
+    <sheet name="Eliminados" sheetId="7" r:id="rId6"/>
+    <sheet name="Graduación" sheetId="5" r:id="rId7"/>
+    <sheet name="Leyenda" sheetId="6" r:id="rId8"/>
+    <sheet name="Base" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Base!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$T$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Graduación!$A$1:$G$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Graduación!$A$1:$G$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nuevos!$A$1:$D$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$49</definedName>
   </definedNames>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="304">
   <si>
     <t>Correlativo</t>
   </si>
@@ -2701,9 +2704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7703,9 +7706,555 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A1:A98)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A1:A26)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A1:A22)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
@@ -12326,7 +12875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -12353,7 +12902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
